--- a/tables/TableS6_farm_specifications.xlsx
+++ b/tables/TableS6_farm_specifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9791EB8-9B11-2C47-9437-BFE7869B309C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B8208-E06D-AD45-B6C7-AE1BE996912E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24140" yWindow="4340" windowWidth="25600" windowHeight="15540" xr2:uid="{AC439BE0-5DA9-1C4A-A6EB-F84CDDA5BF8A}"/>
+    <workbookView xWindow="17780" yWindow="5200" windowWidth="25600" windowHeight="15540" xr2:uid="{AC439BE0-5DA9-1C4A-A6EB-F84CDDA5BF8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Parameter</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Number of cages</t>
   </si>
   <si>
-    <t>Cage volume (m3)</t>
-  </si>
-  <si>
     <t>Bivalve farm (1 sq. km)</t>
   </si>
   <si>
@@ -52,39 +49,12 @@
     <t>Longline length (m)</t>
   </si>
   <si>
-    <t>Derived quantities</t>
-  </si>
-  <si>
     <t>Total number stocked</t>
   </si>
   <si>
     <t>Specifications</t>
   </si>
   <si>
-    <t>* EU best practices maximum is 15 kg m3</t>
-  </si>
-  <si>
-    <t>Median harvest length (cm)</t>
-  </si>
-  <si>
-    <t>Median biomass when harvested (mt)</t>
-  </si>
-  <si>
-    <t>Median density when harvested (kg / m)</t>
-  </si>
-  <si>
-    <t>Median harvest weight (g)</t>
-  </si>
-  <si>
-    <t>Median density when harvested (kg/m3)</t>
-  </si>
-  <si>
-    <t>Stocking density (juvs/m3)</t>
-  </si>
-  <si>
-    <t>Stocking density (juvs/foot)</t>
-  </si>
-  <si>
     <t>Bivalve area</t>
   </si>
   <si>
@@ -98,6 +68,146 @@
   </si>
   <si>
     <t>6 inches</t>
+  </si>
+  <si>
+    <t>Annual production (mt)</t>
+  </si>
+  <si>
+    <t>Time to harvest (yr)</t>
+  </si>
+  <si>
+    <t>Length at harvest (cm)</t>
+  </si>
+  <si>
+    <t>Weight at harvest (kg)</t>
+  </si>
+  <si>
+    <t>Example farm: Atlantic salmon</t>
+  </si>
+  <si>
+    <t>Annual revenues (USD) @ US$7,836/mt</t>
+  </si>
+  <si>
+    <t>Example farm: Blue mussel</t>
+  </si>
+  <si>
+    <t>Weight at harvest (g)</t>
+  </si>
+  <si>
+    <t>Annual revenues (USD) @ US$2,718/mt</t>
+  </si>
+  <si>
+    <r>
+      <t>Harvest density (kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) - L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>inf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; 140 cm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Harvest density (kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) - L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>inf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ≥ 140 cm</t>
+    </r>
+  </si>
+  <si>
+    <t>Harvest density (cm/foot)</t>
+  </si>
+  <si>
+    <r>
+      <t>Cage volume (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -110,7 +220,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +250,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,9 +317,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -513,19 +633,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3982DFA-5FB4-9549-8848-FFC1758E3497}">
-  <dimension ref="A2:B28"/>
+  <dimension ref="A2:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,19 +653,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="17" thickTop="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -553,160 +673,174 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="19">
       <c r="A6" s="8" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4">
         <v>9000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="20">
       <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B12" s="11">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6">
+        <v>888283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6">
+        <v>9858049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <f>B7*B6*B5</f>
-        <v>4320000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="12">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="12">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6">
-        <f>B8*B11/1000/1000</f>
-        <v>2367.36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10">
-        <f>(B8*B11/1000)/(B6*B5)</f>
-        <v>10.96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="B27" s="10">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="5">
-        <f>B18*B17*3.28*B19</f>
-        <v>131200000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="5">
-        <f>B20*B23/1000/1000</f>
-        <v>394.91199999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="B28" s="6">
+        <v>89165363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="11">
-        <f>(B20*B23/100)/(B18*B17)</f>
-        <v>9.8727999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="B29" s="5">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1376857</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -721,29 +855,29 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:7">
       <c r="D2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <f>6*0.48</f>
